--- a/Dataset/Folds/Fold_1/Excel/47.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="596">
   <si>
     <t>Doi</t>
   </si>
@@ -1810,6 +1810,233 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,                            Hong%Xu%NULL%1,                            Ming%Yang%NULL%0,                            Yilan%Zeng%NULL%1,                            Hong%Chen%NULL%1,                            Ru%Liu%NULL%1,                            Qingfeng%Li%NULL%1,                            Na%Zhang%NULL%1,                            Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                             Yongzhen%Fan%NULL%2,                             Ming%Chen%NULL%3,                             Xiaoyan%Wu%NULL%3,                             Lin%Zhang%NULL%3,                             Tao%He%NULL%3,                             Hairong%Wang%NULL%3,                             Jing%Wan%NULL%2,                             Xinghuan%Wang%NULL%0,                             Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                             Yi%Xiang%NULL%0,                             Wei%Fang%NULL%0,                             Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                             Boqun%Li%279685211@qq.com%0,                             Boqun%Li%279685211@qq.com%0,                             Yanjun%Hu%huyanjun@163.com%0,                             Chunhui%Lang%NULL%0,                             Daoqiu%Huang%NULL%0,                             Qiuyan%Sun%NULL%0,                             Yan%Xiong%NULL%0,                             Xia%Huang%NULL%0,                             Jinglong%Lv%NULL%0,                             Yaling%Luo%NULL%0,                             Li%Shen%NULL%0,                             Haoran%Yang%NULL%0,                             Gu%Huang%NULL%0,                             Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                             Lei%Tu%NULL%5,                             Lei%Tu%NULL%0,                             Pingjun%Zhu%NULL%4,                             Pingjun%Zhu%NULL%0,                             Mi%Mu%NULL%5,                             Mi%Mu%NULL%0,                             Runsheng%Wang%NULL%3,                             Pengcheng%Yang%NULL%3,                             Xi%Wang%NULL%2,                             Chao%Hu%NULL%3,                             Rongyu%Ping%NULL%3,                             Peng%Hu%NULL%3,                             Tianzhi%Li%NULL%3,                             Feng%Cao%NULL%2,                             Christopher%Chang%NULL%2,                             Qinyong%Hu%NULL%3,                             Yang%Jin%NULL%2,                             Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                             Xiangjie%Li%NULL%1,                             Mingquan%Chen%NULL%2,                             Mingquan%Chen%NULL%0,                             Yi%Feng%NULL%1,                             Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%0,                             Chun-quan%Ou%NULL%0,                             Jian-xing%He%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             David S.C.%Hui%NULL%0,                             Bin%Du%NULL%0,                             Lan-juan%Li%NULL%0,                             Guang%Zeng%NULL%0,                             Kwok-Yung%Yuen%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%0,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-lin%Wang%NULL%0,                             Zi-jing%Liang%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                             Wenbo%He%NULL%3,                             Xiaomei%Yu%NULL%3,                             Dalong%Hu%NULL%3,                             Mingwei%Bao%NULL%3,                             Huafen%Liu%NULL%3,                             Jiali%Zhou%NULL%3,                             Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                             Min%Zhou%NULL%5,                             Xuan%Dong%NULL%5,                             Jieming%Qu%NULL%8,                             Fengyun%Gong%NULL%5,                             Yang%Han%NULL%4,                             Yang%Qiu%NULL%4,                             Jingli%Wang%NULL%5,                             Ying%Liu%NULL%0,                             Yuan%Wei%NULL%0,                             Jia'an%Xia%NULL%0,                             Ting%Yu%NULL%0,                             Xinxin%Zhang%NULL%4,                             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                             Linlin%Xie%NULL%1,                             Rui%Liu%NULL%1,                             Jie%Yang%NULL%2,                             Fang%Liu%NULL%1,                             Kailang%Wu%NULL%1,                             Lang%Chen%NULL%1,                             Wei%Hou%NULL%2,                             Yong%Feng%yongfeng@whu.edu.cn%1,                             Chengliang%Zhu%xinchengzhu@163.com%2,                             Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                             Shaobo%Shi%NULL%2,                             Shaobo%Shi%NULL%0,                             Jiling%Zhu%NULL%1,                             Jinzhi%Shi%NULL%1,                             Kai%Dai%NULL%1,                             Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                             Bo%Hu%NULL%2,                             Yao%Zhang%NULL%1,                             Hao%Wang%NULL%1,                             Xiaoyang%Zhou%NULL%1,                             Wei%Hu%NULL%1,                             Yuting%Cheng%NULL%1,                             Jie%Yan%NULL%0,                             Haiqin%Ping%NULL%1,                             Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                             Kwan Ho%Lee%NULL%2,                             Kwan Ho%Lee%NULL%0,                             Jin Hong%Chung%NULL%2,                             Jin Hong%Chung%NULL%0,                             Kyeong-Cheol%Shin%NULL%2,                             Kyeong-Cheol%Shin%NULL%0,                             Eun Young%Choi%NULL%2,                             Eun Young%Choi%NULL%0,                             Hyun Jung%Jin%NULL%2,                             Hyun Jung%Jin%NULL%0,                             Jong Geol%Jang%NULL%2,                             Jong Geol%Jang%NULL%0,                             Wonhwa%Lee%NULL%2,                             Wonhwa%Lee%NULL%0,                             June Hong%Ahn%NULL%2,                             June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                             Hong%Xu%NULL%1,                             Ming%Yang%NULL%0,                             Yilan%Zeng%NULL%1,                             Hong%Chen%NULL%1,                             Ru%Liu%NULL%1,                             Qingfeng%Li%NULL%1,                             Na%Zhang%NULL%1,                             Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                              Yongzhen%Fan%NULL%2,                              Ming%Chen%NULL%3,                              Xiaoyan%Wu%NULL%3,                              Lin%Zhang%NULL%3,                              Tao%He%NULL%3,                              Hairong%Wang%NULL%3,                              Jing%Wan%NULL%2,                              Xinghuan%Wang%NULL%0,                              Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                              Yi%Xiang%NULL%0,                              Wei%Fang%NULL%0,                              Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                              Boqun%Li%279685211@qq.com%0,                              Boqun%Li%279685211@qq.com%0,                              Yanjun%Hu%huyanjun@163.com%0,                              Chunhui%Lang%NULL%0,                              Daoqiu%Huang%NULL%0,                              Qiuyan%Sun%NULL%0,                              Yan%Xiong%NULL%0,                              Xia%Huang%NULL%0,                              Jinglong%Lv%NULL%0,                              Yaling%Luo%NULL%0,                              Li%Shen%NULL%0,                              Haoran%Yang%NULL%0,                              Gu%Huang%NULL%0,                              Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                              Ting%Yu%NULL%0,                              Ronghui%Du%NULL%0,                              Guohui%Fan%NULL%0,                              Ying%Liu%NULL%0,                              Zhibo%Liu%NULL%0,                              Jie%Xiang%NULL%0,                              Yeming%Wang%NULL%0,                              Bin%Song%NULL%0,                              Xiaoying%Gu%NULL%0,                              Lulu%Guan%NULL%0,                              Yuan%Wei%NULL%0,                              Hui%Li%NULL%0,                              Xudong%Wu%NULL%0,                              Jiuyang%Xu%NULL%0,                              Shengjin%Tu%NULL%0,                              Yi%Zhang%NULL%0,                              Hua%Chen%NULL%0,                              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                              Lei%Tu%NULL%5,                              Lei%Tu%NULL%0,                              Pingjun%Zhu%NULL%4,                              Pingjun%Zhu%NULL%0,                              Mi%Mu%NULL%5,                              Mi%Mu%NULL%0,                              Runsheng%Wang%NULL%3,                              Pengcheng%Yang%NULL%3,                              Xi%Wang%NULL%2,                              Chao%Hu%NULL%3,                              Rongyu%Ping%NULL%3,                              Peng%Hu%NULL%3,                              Tianzhi%Li%NULL%3,                              Feng%Cao%NULL%2,                              Christopher%Chang%NULL%2,                              Qinyong%Hu%NULL%3,                              Yang%Jin%NULL%2,                              Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                              Xiangjie%Li%NULL%1,                              Mingquan%Chen%NULL%2,                              Mingquan%Chen%NULL%0,                              Yi%Feng%NULL%1,                              Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Wen-hua%Liang%NULL%0,                              Chun-quan%Ou%NULL%0,                              Jian-xing%He%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%0,                              David S.C.%Hui%NULL%0,                              Bin%Du%NULL%0,                              Lan-juan%Li%NULL%0,                              Guang%Zeng%NULL%0,                              Kwok-Yung%Yuen%NULL%0,                              Ru-chong%Chen%NULL%0,                              Chun-li%Tang%NULL%0,                              Tao%Wang%NULL%0,                              Ping-yan%Chen%NULL%0,                              Jie%Xiang%NULL%0,                              Shi-yue%Li%NULL%0,                              Jin-lin%Wang%NULL%0,                              Zi-jing%Liang%NULL%0,                              Yi-xiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%0,                              Ji-yang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%0,                              Shao-qin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%0,                              Shao-yong%Zhu%NULL%0,                              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                              Wenbo%He%NULL%3,                              Xiaomei%Yu%NULL%3,                              Dalong%Hu%NULL%3,                              Mingwei%Bao%NULL%3,                              Huafen%Liu%NULL%3,                              Jiali%Zhou%NULL%3,                              Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                              Min%Zhou%NULL%5,                              Xuan%Dong%NULL%5,                              Jieming%Qu%NULL%8,                              Fengyun%Gong%NULL%5,                              Yang%Han%NULL%4,                              Yang%Qiu%NULL%4,                              Jingli%Wang%NULL%5,                              Ying%Liu%NULL%0,                              Yuan%Wei%NULL%0,                              Jia'an%Xia%NULL%0,                              Ting%Yu%NULL%0,                              Xinxin%Zhang%NULL%4,                              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                              Yuan%Yu%NULL%0,                              Jiqian%Xu%NULL%0,                              Huaqing%Shu%NULL%0,                              Jia'an%Xia%NULL%0,                              Hong%Liu%NULL%0,                              Yongran%Wu%NULL%0,                              Lu%Zhang%NULL%0,                              Zhui%Yu%NULL%0,                              Minghao%Fang%NULL%0,                              Ting%Yu%NULL%0,                              Yaxin%Wang%NULL%0,                              Shangwen%Pan%NULL%0,                              Xiaojing%Zou%NULL%0,                              Shiying%Yuan%NULL%0,                              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%2,                              Linlin%Xie%NULL%1,                              Rui%Liu%NULL%1,                              Jie%Yang%NULL%2,                              Fang%Liu%NULL%1,                              Kailang%Wu%NULL%1,                              Lang%Chen%NULL%1,                              Wei%Hou%NULL%2,                              Yong%Feng%yongfeng@whu.edu.cn%1,                              Chengliang%Zhu%xinchengzhu@163.com%2,                              Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                              Shaobo%Shi%NULL%2,                              Shaobo%Shi%NULL%0,                              Jiling%Zhu%NULL%1,                              Jinzhi%Shi%NULL%1,                              Kai%Dai%NULL%1,                              Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                              Bo%Hu%NULL%2,                              Yao%Zhang%NULL%1,                              Hao%Wang%NULL%1,                              Xiaoyang%Zhou%NULL%1,                              Wei%Hu%NULL%1,                              Yuting%Cheng%NULL%1,                              Jie%Yan%NULL%0,                              Haiqin%Ping%NULL%1,                              Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                              Kwan Ho%Lee%NULL%2,                              Kwan Ho%Lee%NULL%0,                              Jin Hong%Chung%NULL%2,                              Jin Hong%Chung%NULL%0,                              Kyeong-Cheol%Shin%NULL%2,                              Kyeong-Cheol%Shin%NULL%0,                              Eun Young%Choi%NULL%2,                              Eun Young%Choi%NULL%0,                              Hyun Jung%Jin%NULL%2,                              Hyun Jung%Jin%NULL%0,                              Jong Geol%Jang%NULL%2,                              Jong Geol%Jang%NULL%0,                              Wonhwa%Lee%NULL%2,                              Wonhwa%Lee%NULL%0,                              June Hong%Ahn%NULL%2,                              June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                              Hong%Xu%NULL%1,                              Ming%Yang%NULL%0,                              Yilan%Zeng%NULL%1,                              Hong%Chen%NULL%1,                              Ru%Liu%NULL%1,                              Qingfeng%Li%NULL%1,                              Na%Zhang%NULL%1,                              Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This case series study evaluates the association of underlying cardiovascular disease and myocardial injury on fatal outcomes in patients with coronavirus disease 2019 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0, Yongzhen%Fan%NULL%0, Ming%Chen%NULL%0, Xiaoyan%Wu%NULL%0, Lin%Zhang%NULL%0, Tao%He%NULL%0, Hairong%Wang%NULL%0, Jing%Wan%NULL%0, Xinghuan%Wang%NULL%0, Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>The outbreak of the novel coronavirus in China (SARS‐CoV‐2) that began in December 2019 presents a significant and urgent threat to global health.
+ This study was conducted to provide the international community with a deeper understanding of this new infectious disease.
+ Epidemiological, clinical features, laboratory findings, radiological characteristics, treatment, and clinical outcomes of 135 patients in northeast Chongqing were collected and analyzed in this study.
+ A total of 135 hospitalized patients with COVID‐19 were enrolled.
+ The median age was 47 years (interquartile range, 36‐55), and there was no significant gender difference (53.3% men).
+ The majority of patients had contact with people from the Wuhan area.
+ Forty‐three (31.9%) patients had underlying disease, primarily hypertension (13 [9.6%]), diabetes (12 [8.9%]), cardiovascular disease (7 [5.2%]), and malignancy (4 [3.0%]).
+ Common symptoms included fever (120 [88.9%]), cough (102 [76.5%]), and fatigue (44 [32.5%]).
+ Chest computed tomography scans showed bilateral patchy shadows or ground glass opacity in the lungs of all the patients.
+ All patients received antiviral therapy (135 [100%]) (Kaletra and interferon were both used), antibacterial therapy (59 [43.7%]), and corticosteroids (36 [26.7%]).
+ In addition, many patients received traditional Chinese medicine (TCM) (124 [91.8%]).
+ It is suggested that patients should receive Kaletra early and should be treated by a combination of Western and Chinese medicines.
+ Compared to the mild cases, the severe ones had lower lymphocyte counts and higher plasma levels of Pt, APTT, d‐dimer, lactate dehydrogenase, PCT, ALB, C‐reactive protein, and aspartate aminotransferase.
+ This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
+ Kaletra and TCM played an important role in the treatment of the viral pneumonia.
+ Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%0, Wei%Fang%NULL%0, Yu%Zheng%yuzheng1@cdutcm.edu.cn%0, Boqun%Li%279685211@qq.com%0, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%0, Chunhui%Lang%NULL%0, Daoqiu%Huang%NULL%0, Qiuyan%Sun%NULL%0, Yan%Xiong%NULL%0, Xia%Huang%NULL%0, Jinglong%Lv%NULL%0, Yaling%Luo%NULL%0, Li%Shen%NULL%0, Haoran%Yang%NULL%0, Gu%Huang%NULL%0, Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The global death toll from coronavirus disease (COVID-19) virus as of May 12, 2020, exceeds 286,000. The risk factors for death were attributed to advanced age and comorbidities but have not been accurately defined.
+</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0, Lei%Tu%NULL%0, Lei%Tu%NULL%0, Pingjun%Zhu%NULL%0, Pingjun%Zhu%NULL%0, Mi%Mu%NULL%0, Mi%Mu%NULL%0, Runsheng%Wang%NULL%0, Pengcheng%Yang%NULL%0, Xi%Wang%NULL%0, Chao%Hu%NULL%0, Rongyu%Ping%NULL%0, Peng%Hu%NULL%0, Tianzhi%Li%NULL%0, Feng%Cao%NULL%0, Christopher%Chang%NULL%0, Qinyong%Hu%NULL%0, Yang%Jin%NULL%0, Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t>A new type of pneumonia caused by a novel coronavirus SARS-CoV-2 outbreaks recently in China and spreads into many other countries.
+ This disease, named as COVID-19, is similar to patients infected by SARS-CoV and MERS-CoV, and nearly 20% of patients developed severe condition.
+ Cardiac injury is a prevalent complication of severe patients, exacerbating the disease severity in coronavirus disease 2019 (COVID-19) patients.
+ Angiotensin-converting enzyme 2 (ACE2), the key host cellular receptor of SARS-CoV-2, has been identified in multiple organs, but its cellular distribution in human heart is not illuminated clearly.
+ This study performed the first state-of-art single cell atlas of adult human heart, and revealed that pericytes with high expression of ACE2 might act as the target cardiac cell of SARS-CoV-2. The pericytes injury due to virus infection may result in capillary endothelial cells dysfunction, inducing microvascular dysfunction.
+ And patients with basic heart failure disease showed increased ACE2 expression at both mRNA and protein levels, meaning that if infected by the virus these patients may have higher risk of heart attack and critically ill condition.
+ The finding of this study explains the high rate of severe cases among COVID-19 patients with basic cardiovascular disease; and these results also perhaps provide important reference to clinical treatment of cardiac injury among severe patients infected by SARS-CoV-2.</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%0, Xiangjie%Li%NULL%1, Mingquan%Chen%NULL%2, Mingquan%Chen%NULL%0, Yi%Feng%NULL%1, Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 in the elderly patients was severe and highly fatal.
+</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0, Wenbo%He%NULL%0, Xiaomei%Yu%NULL%0, Dalong%Hu%NULL%0, Mingwei%Bao%NULL%0, Huafen%Liu%NULL%0, Jiali%Zhou%NULL%0, Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>An outbreak of severe acute respiratory syndrome novel coronavirus (SARS‐CoV‐2) epidemic spreads rapidly worldwide.
+ SARS‐CoV‐2 infection caused mildly to seriously and fatally respiratory, enteric, cardiovascular, and neurological diseases.
+ In this study, we detected and analyzed the main laboratory indicators related to heart injury, creatine kinase isoenzyme‐MB (CK‐MB), myohemoglobin (MYO), cardiac troponin I (ultra‐TnI), and N‐terminal pro‐brain natriuretic peptide (NT‐proBNP), in 273 patients with COVID‐19 and investigated the correlation between heart injury and severity of the disease.
+ It was found that higher concentration in venous blood of CK‐MB, MYO, ultra‐TnI, and NT‐proBNP were associated with the severity and case fatality rate of COVID‐19. Careful monitoring of the myocardiac enzyme profiles is of great importance in reducing the complications and mortality in patients with COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0, Linlin%Xie%NULL%2, Rui%Liu%NULL%2, Jie%Yang%NULL%0, Fang%Liu%NULL%0, Kailang%Wu%NULL%3, Lang%Chen%NULL%2, Wei%Hou%NULL%0, Yong%Feng%yongfeng@whu.edu.cn%3, Chengliang%Zhu%xinchengzhu@163.com%4, Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This retrospective study aimed to analyze the clinical characteristics and complications in death cases with novel coronavirus disease‐19 (COVID‐19).
+ We collected the medical records of 92 patients with COVID‐19, who died in the time period ranging from 6 January 2020 to 25 February 2020, in Renmin Hospital of Wuhan University and summarized the clinical characteristics of complications.
+ There were 91 death cases in which different complications were developed, including acute respiratory distress syndrome (ARDS) (73/91), myocardial injury (31/91), liver injury (15/91), renal insufficiency (14/91), multiple organ dysfunction syndrome (MODS) (14/91), and pneumothorax (1/91).
+ Among these patients, 83 patients had at least one complication.
+ However, one patient who died of recurrent gastrointestinal bleeding was not directly linked to COVID‐19. The main complications of deceased patients with COVID‐19 were ARDS, myocardial injury, liver injury, renal insufficiency, and MODS.
+</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0, Shaobo%Shi%NULL%0, Shaobo%Shi%NULL%0, Jiling%Zhu%NULL%2, Jinzhi%Shi%NULL%2, Kai%Dai%NULL%2, Xiaobei%Chen%121278395@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0, Bo%Hu%NULL%0, Yao%Zhang%NULL%0, Hao%Wang%NULL%3, Xiaoyang%Zhou%NULL%2, Wei%Hu%NULL%2, Yuting%Cheng%NULL%2, Jie%Yan%NULL%0, Haiqin%Ping%NULL%2, Qing%Zhou%qingzhou.wh.edu@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>Although some information on the epidemiology of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and a few selected cases has been reported, data on the clinical characteristics and outcomes of patients hospitalized therewith in South Korea are lacking.
+ We conducted a retrospective single-center study of 98 consecutive hospitalized patients with confirmed SARS-CoV-2 infection at Yeungnam University Medical Center in Daegu, South Korea.
+ Sixty patients were women (61.2%), and the mean age was 55.4±17.1 years.
+ Thirteen patients (13.3%) were treated in the intensive care unit (ICU).
+ The mean interval from symptom onset to hospitalization was 7.7±4.5 days.
+ Patients who received ICU care were significantly older and were more likely to have diabetes mellitus.
+ The National Early Warning Score on the day of admission was significantly higher in patients requiring ICU care.
+ Acute respiratory distress syndrome (13/13 patients; 100%), septic shock (9/13; 69.2%), acute cardiac injury (9/13; 69.2%), and acute kidney injury (8/13; 61.5%) were more common in patients who received ICU care.
+ All patients received antibiotic therapy, and most (97/98 patients; 99.0%) received antiviral therapy (lopinavir/ritonavir).
+ Hydroxychloroquine was used in 79 patients (80.6%), and glucocorticoid therapy was used in 18 patients (18.4%).
+ In complete blood counts, lymphopenia was the most common finding (40/98 patients; 40.8%).
+ Levels of all proinflammatory cytokines were significantly higher in ICU patients.
+ As of March 29, 2020, the mortality rate was 5.1%.
+ Here, we report the clinical characteristics and laboratory findings of SARS-CoV-2 patients in South Korea up to March 29, 2020.</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0, Kwan Ho%Lee%NULL%4, Kwan Ho%Lee%NULL%0, Jin Hong%Chung%NULL%4, Jin Hong%Chung%NULL%0, Kyeong-Cheol%Shin%NULL%4, Kyeong-Cheol%Shin%NULL%0, Eun Young%Choi%NULL%4, Eun Young%Choi%NULL%0, Hyun Jung%Jin%NULL%4, Hyun Jung%Jin%NULL%0, Jong Geol%Jang%NULL%4, Jong Geol%Jang%NULL%0, Wonhwa%Lee%NULL%4, Wonhwa%Lee%NULL%0, June Hong%Ahn%NULL%0, June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>Yonsei University College of Medicine</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%0, Hong%Xu%NULL%1, Ming%Yang%NULL%0, Yilan%Zeng%NULL%1, Hong%Chen%NULL%0, Ru%Liu%NULL%1, Qingfeng%Li%NULL%1, Na%Zhang%NULL%1, Dan%Wang%188170370@qq.com%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier B.V.</t>
   </si>
 </sst>
 </file>
@@ -2160,10 +2387,10 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>564</v>
       </c>
       <c r="E2" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -2175,10 +2402,10 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2192,10 +2419,10 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>567</v>
       </c>
       <c r="E3" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -2207,10 +2434,10 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2227,7 +2454,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2239,10 +2466,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2253,7 +2480,7 @@
         <v>43921</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -2262,19 +2489,19 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>412</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2288,10 +2515,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>572</v>
       </c>
       <c r="E6" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -2303,10 +2530,10 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2320,10 +2547,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>575</v>
       </c>
       <c r="E7" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -2335,10 +2562,10 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2355,7 +2582,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2367,10 +2594,10 @@
         <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2381,25 +2608,25 @@
         <v>44013</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>523</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>376</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
         <v>94</v>
@@ -2416,10 +2643,10 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>580</v>
       </c>
       <c r="E10" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -2431,10 +2658,10 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2445,25 +2672,25 @@
         <v>44013</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
         <v>94</v>
@@ -2483,7 +2710,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -2495,10 +2722,10 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2515,7 +2742,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -2527,10 +2754,10 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2541,25 +2768,25 @@
         <v>44007</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>528</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>376</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
         <v>94</v>
@@ -2573,22 +2800,22 @@
         <v>43891</v>
       </c>
       <c r="C15" t="s">
-        <v>507</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>529</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>530</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>511</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
         <v>94</v>
@@ -2608,10 +2835,10 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>585</v>
       </c>
       <c r="E16" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -2623,10 +2850,10 @@
         <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2640,10 +2867,10 @@
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>587</v>
       </c>
       <c r="E17" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -2655,10 +2882,10 @@
         <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2675,7 +2902,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -2687,10 +2914,10 @@
         <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2704,10 +2931,10 @@
         <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -2719,10 +2946,10 @@
         <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2739,7 +2966,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -2751,10 +2978,10 @@
         <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
